--- a/PCB/Rev 03.00/000018 PGKB/MFG/000018 PGKB Rev 3.00 BOM_purchasing.xlsx
+++ b/PCB/Rev 03.00/000018 PGKB/MFG/000018 PGKB Rev 3.00 BOM_purchasing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teemu\Google Drive\temp\Ostettavaa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubProjects\PGKB\PCB\Rev 03.00\000018 PGKB\MFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F23758-67C8-4457-A4C2-657E00AF7892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9449B7B-2696-4E8D-9B3E-136AA938B894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="705" windowWidth="23595" windowHeight="13710" xr2:uid="{86873884-B4BD-499F-83C6-413FB57D0B81}"/>
+    <workbookView xWindow="9000" yWindow="1605" windowWidth="27570" windowHeight="13710" xr2:uid="{86873884-B4BD-499F-83C6-413FB57D0B81}"/>
   </bookViews>
   <sheets>
     <sheet name="000018 PGKB Rev 3.00 BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="152">
   <si>
     <t>Reference</t>
   </si>
@@ -196,21 +196,9 @@
     <t>D13</t>
   </si>
   <si>
-    <t>Schottky_30V_200mA_DCo_BAT54WS</t>
-  </si>
-  <si>
     <t>https://diotec.com/tl_files/diotec/files/pdf/datasheets/bat54ws.pdf</t>
   </si>
   <si>
-    <t>BAT54WS</t>
-  </si>
-  <si>
-    <t>DComponents</t>
-  </si>
-  <si>
-    <t>2721-BAT54WSTR-ND</t>
-  </si>
-  <si>
     <t>D15</t>
   </si>
   <si>
@@ -476,6 +464,18 @@
   </si>
   <si>
     <t>535-ABM8-272-T3CT-ND</t>
+  </si>
+  <si>
+    <t>BAT54</t>
+  </si>
+  <si>
+    <t>CUS357H3FCT-ND</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>PGKB</t>
   </si>
 </sst>
 </file>
@@ -1336,15 +1336,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D5893-558B-4E0C-9CD4-B2E5B941F3D3}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,8 +1375,11 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1407,8 +1410,11 @@
       <c r="J2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1439,8 +1445,11 @@
       <c r="J3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1471,8 +1480,11 @@
       <c r="J4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1503,8 +1515,11 @@
       <c r="J5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1535,8 +1550,11 @@
       <c r="J6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1567,8 +1585,11 @@
       <c r="J7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1599,8 +1620,11 @@
       <c r="J8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1631,16 +1655,19 @@
       <c r="J9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
       <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1651,28 +1678,25 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="H10" t="s">
+      <c r="C11" t="s">
         <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1684,27 +1708,30 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="H11" t="s">
+      <c r="C12" t="s">
         <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1716,27 +1743,30 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
         <v>72</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1748,27 +1778,30 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="H13" t="s">
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
         <v>77</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1780,27 +1813,30 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1812,27 +1848,30 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
         <v>87</v>
       </c>
-      <c r="H15" t="s">
+      <c r="C16" t="s">
         <v>88</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -1844,27 +1883,30 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -1876,27 +1918,30 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>11</v>
@@ -1908,27 +1953,30 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19">
         <v>360</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1940,27 +1988,30 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B20">
         <v>4958</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D20">
         <v>11</v>
@@ -1975,24 +2026,27 @@
         <v>4958</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="K20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B21">
         <v>430181038816</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2007,24 +2061,27 @@
         <v>430181038816</v>
       </c>
       <c r="H21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
         <v>114</v>
       </c>
-      <c r="I21" t="s">
+      <c r="C22" t="s">
         <v>115</v>
-      </c>
-      <c r="J21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" t="s">
-        <v>119</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2036,27 +2093,30 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
         <v>118</v>
       </c>
-      <c r="H22" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" t="s">
-        <v>122</v>
-      </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2068,27 +2128,30 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>122</v>
       </c>
-      <c r="H23" t="s">
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
         <v>124</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" t="s">
-        <v>128</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2100,27 +2163,30 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>127</v>
       </c>
-      <c r="H24" t="s">
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
         <v>129</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" t="s">
-        <v>133</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2132,27 +2198,30 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
         <v>134</v>
       </c>
-      <c r="H25" t="s">
+      <c r="C26" t="s">
         <v>135</v>
-      </c>
-      <c r="I25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" t="s">
-        <v>139</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2164,27 +2233,30 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>138</v>
       </c>
-      <c r="H26" t="s">
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
         <v>140</v>
-      </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" t="s">
-        <v>144</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2196,27 +2268,30 @@
         <v>12</v>
       </c>
       <c r="G27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>143</v>
       </c>
-      <c r="H27" t="s">
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
         <v>145</v>
-      </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" t="s">
-        <v>149</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2228,15 +2303,18 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
       </c>
       <c r="J28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" t="s">
         <v>151</v>
       </c>
     </row>

--- a/PCB/Rev 03.00/000018 PGKB/MFG/000018 PGKB Rev 3.00 BOM_purchasing.xlsx
+++ b/PCB/Rev 03.00/000018 PGKB/MFG/000018 PGKB Rev 3.00 BOM_purchasing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubProjects\PGKB\PCB\Rev 03.00\000018 PGKB\MFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9449B7B-2696-4E8D-9B3E-136AA938B894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD7304D-F87E-4E10-A3AE-59B928C40CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1605" windowWidth="27570" windowHeight="13710" xr2:uid="{86873884-B4BD-499F-83C6-413FB57D0B81}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16650" windowHeight="14625" xr2:uid="{86873884-B4BD-499F-83C6-413FB57D0B81}"/>
   </bookViews>
   <sheets>
     <sheet name="000018 PGKB Rev 3.00 BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="177">
   <si>
     <t>Reference</t>
   </si>
@@ -160,9 +160,6 @@
     <t>D11</t>
   </si>
   <si>
-    <t>TVS_5V5_DRTR5V0U4S-7-M</t>
-  </si>
-  <si>
     <t>https://www.diodes.com/assets/Datasheets/DRTR5V0U4S.pdf</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>D12</t>
   </si>
   <si>
-    <t>Schottky_30V_1A_PMEG3010ER_115</t>
-  </si>
-  <si>
     <t>https://assets.nexperia.com/documents/data-sheet/PMEG3010ER.pdf</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>D13</t>
   </si>
   <si>
-    <t>https://diotec.com/tl_files/diotec/files/pdf/datasheets/bat54ws.pdf</t>
-  </si>
-  <si>
     <t>D15</t>
   </si>
   <si>
@@ -247,12 +238,42 @@
     <t>445-MMZ2012Y152BT000CT-ND</t>
   </si>
   <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>USB C</t>
+  </si>
+  <si>
+    <t>https://gct.co/files/drawings/usb4085.pdf</t>
+  </si>
+  <si>
+    <t>USB4085-GF-A</t>
+  </si>
+  <si>
+    <t>GCT</t>
+  </si>
+  <si>
+    <t>2073-USB4085-GF-ACT-ND</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>S4B-PH-SM4-TB</t>
+  </si>
+  <si>
+    <t>https://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
+  </si>
+  <si>
+    <t>JST Sales America Inc.</t>
+  </si>
+  <si>
+    <t>455-S4B-PH-SM4-TBCT-ND</t>
+  </si>
+  <si>
     <t>R1,R2,R26,R27</t>
   </si>
   <si>
-    <t>R_0603_5100_1%</t>
-  </si>
-  <si>
     <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
   </si>
   <si>
@@ -349,18 +370,6 @@
     <t>S12,S13</t>
   </si>
   <si>
-    <t>https://www.mouser.fi/datasheet/2/445/430181038816-1717160.pdf</t>
-  </si>
-  <si>
-    <t>Wurth Elektronik</t>
-  </si>
-  <si>
-    <t>Mouser</t>
-  </si>
-  <si>
-    <t>710-430181038816</t>
-  </si>
-  <si>
     <t>S20</t>
   </si>
   <si>
@@ -439,18 +448,6 @@
     <t>U7</t>
   </si>
   <si>
-    <t>CAT811TTBI-GT3</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/cat811-d.pdf</t>
-  </si>
-  <si>
-    <t>onsemi</t>
-  </si>
-  <si>
-    <t>CAT811TTBI-GT3OSCT-ND</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -466,16 +463,94 @@
     <t>535-ABM8-272-T3CT-ND</t>
   </si>
   <si>
-    <t>BAT54</t>
-  </si>
-  <si>
-    <t>CUS357H3FCT-ND</t>
-  </si>
-  <si>
-    <t>Ref</t>
+    <t>5k1</t>
+  </si>
+  <si>
+    <t>PTS647SN38SMTR2 LFS</t>
+  </si>
+  <si>
+    <t>https://www.ckswitches.com/media/2567/pts647.pdf</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>PTS647SN38SMTR2LFSCT-ND</t>
+  </si>
+  <si>
+    <t>Tarve 11 kpl</t>
   </si>
   <si>
     <t>PGKB</t>
+  </si>
+  <si>
+    <t>S14,S99</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/4954/4954_CPG1511F01S03-BOX_Brown.pdf</t>
+  </si>
+  <si>
+    <t>1528-4954-ND</t>
+  </si>
+  <si>
+    <t>BAT54WSQ-7-F</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/BAT54WS.pdf</t>
+  </si>
+  <si>
+    <t>BAT54WSQ-7-FDICT-ND</t>
+  </si>
+  <si>
+    <t>H1,H2,H4</t>
+  </si>
+  <si>
+    <t>NPTH 3.2 M3 Clearance</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>NPTH_3.2</t>
+  </si>
+  <si>
+    <t>H5,H6</t>
+  </si>
+  <si>
+    <t>PTH 3.2 M3 Clearance</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>GND Hook</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>TP1,TP2,TP3,TP4,TP5,TP6,TP7,TP8,TP10,TP11,TP12,TP13,TP14,TP15,TP16,TP17</t>
+  </si>
+  <si>
+    <t>TP D2.5 mm H0.9mm</t>
+  </si>
+  <si>
+    <t>TP9</t>
+  </si>
+  <si>
+    <t>TestPoint_1.5mm_Round</t>
+  </si>
+  <si>
+    <t>APX811-31UG-7</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/APX811_812.pdf</t>
+  </si>
+  <si>
+    <t>APX811-31UG-7DICT-ND</t>
   </si>
 </sst>
 </file>
@@ -1336,13 +1411,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D5893-558B-4E0C-9CD4-B2E5B941F3D3}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1361,22 +1439,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1396,22 +1471,19 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1431,22 +1503,19 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1466,22 +1535,19 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1501,22 +1567,19 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1536,22 +1599,19 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1565,28 +1625,28 @@
         <v>42</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
+      <c r="F7">
         <v>4960</v>
       </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1594,10 +1654,10 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1606,33 +1666,30 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
       </c>
       <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
       <c r="J8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1641,33 +1698,30 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
         <v>54</v>
       </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
       <c r="J9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1676,27 +1730,30 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1705,33 +1762,30 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1740,33 +1794,30 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1775,278 +1826,242 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
         <v>71</v>
       </c>
-      <c r="H13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
       <c r="J13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19">
-        <v>360</v>
-      </c>
-      <c r="C19" t="s">
-        <v>100</v>
+        <v>167</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20">
-        <v>4958</v>
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20">
-        <v>4958</v>
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B21">
-        <v>430181038816</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2055,208 +2070,184 @@
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21">
-        <v>430181038816</v>
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
-      </c>
-      <c r="K21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="J23" t="s">
-        <v>121</v>
-      </c>
-      <c r="K23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" t="s">
-        <v>126</v>
-      </c>
-      <c r="K24" t="s">
-        <v>151</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" t="s">
-        <v>134</v>
+        <v>106</v>
+      </c>
+      <c r="B26">
+        <v>360</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="J26" t="s">
-        <v>137</v>
-      </c>
-      <c r="K26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" t="s">
-        <v>139</v>
+        <v>111</v>
+      </c>
+      <c r="B27">
+        <v>4958</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2264,58 +2255,357 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
+      <c r="F27">
+        <v>4958</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="J27" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>151</v>
+      </c>
+      <c r="J28" t="s">
+        <v>153</v>
+      </c>
+      <c r="K28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29">
+        <v>4954</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>4954</v>
+      </c>
+      <c r="G29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>156</v>
+      </c>
+      <c r="J29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
         <v>143</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
         <v>145</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
         <v>146</v>
-      </c>
-      <c r="H28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>147</v>
-      </c>
-      <c r="K28" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/PCB/Rev 03.00/000018 PGKB/MFG/000018 PGKB Rev 3.00 BOM_purchasing.xlsx
+++ b/PCB/Rev 03.00/000018 PGKB/MFG/000018 PGKB Rev 3.00 BOM_purchasing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubProjects\PGKB\PCB\Rev 03.00\000018 PGKB\MFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD7304D-F87E-4E10-A3AE-59B928C40CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6A0F9B-B11E-4F1A-9561-694209A9A241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16650" windowHeight="14625" xr2:uid="{86873884-B4BD-499F-83C6-413FB57D0B81}"/>
+    <workbookView xWindow="10005" yWindow="600" windowWidth="16650" windowHeight="14625" xr2:uid="{86873884-B4BD-499F-83C6-413FB57D0B81}"/>
   </bookViews>
   <sheets>
     <sheet name="000018 PGKB Rev 3.00 BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="163">
   <si>
     <t>Reference</t>
   </si>
@@ -500,48 +500,6 @@
   </si>
   <si>
     <t>BAT54WSQ-7-FDICT-ND</t>
-  </si>
-  <si>
-    <t>H1,H2,H4</t>
-  </si>
-  <si>
-    <t>NPTH 3.2 M3 Clearance</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>NPTH_3.2</t>
-  </si>
-  <si>
-    <t>H5,H6</t>
-  </si>
-  <si>
-    <t>PTH 3.2 M3 Clearance</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>GND Hook</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>TP1,TP2,TP3,TP4,TP5,TP6,TP7,TP8,TP10,TP11,TP12,TP13,TP14,TP15,TP16,TP17</t>
-  </si>
-  <si>
-    <t>TP D2.5 mm H0.9mm</t>
-  </si>
-  <si>
-    <t>TP9</t>
-  </si>
-  <si>
-    <t>TestPoint_1.5mm_Round</t>
   </si>
   <si>
     <t>APX811-31UG-7</t>
@@ -1411,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D5893-558B-4E0C-9CD4-B2E5B941F3D3}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,28 +1801,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s">
         <v>153</v>
@@ -1872,28 +1833,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s">
         <v>153</v>
@@ -1901,28 +1865,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
         <v>153</v>
@@ -1930,31 +1897,31 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+      <c r="B17">
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="J17" t="s">
         <v>153</v>
@@ -1962,31 +1929,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
         <v>153</v>
@@ -1994,28 +1961,31 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="J19" t="s">
         <v>153</v>
@@ -2023,22 +1993,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
         <v>84</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -2047,7 +2017,7 @@
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
         <v>153</v>
@@ -2055,13 +2025,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>360</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2070,16 +2040,16 @@
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="J21" t="s">
         <v>153</v>
@@ -2087,121 +2057,133 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>94</v>
+        <v>111</v>
+      </c>
+      <c r="B22">
+        <v>4958</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" t="s">
-        <v>96</v>
+      <c r="F22">
+        <v>4958</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="J22" t="s">
         <v>153</v>
+      </c>
+      <c r="K22" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="J23" t="s">
         <v>153</v>
+      </c>
+      <c r="K23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
+        <v>154</v>
+      </c>
+      <c r="B24">
+        <v>4954</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>4954</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>4</v>
+        <v>156</v>
+      </c>
+      <c r="J24" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="J25" t="s">
         <v>153</v>
@@ -2209,31 +2191,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26">
-        <v>360</v>
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="J26" t="s">
         <v>153</v>
@@ -2241,13 +2223,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27">
-        <v>4958</v>
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2255,87 +2237,81 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27">
-        <v>4958</v>
+      <c r="F27" t="s">
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="J27" t="s">
         <v>153</v>
-      </c>
-      <c r="K27" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="J28" t="s">
         <v>153</v>
-      </c>
-      <c r="K28" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29">
-        <v>4954</v>
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29">
-        <v>4954</v>
+      <c r="F29" t="s">
+        <v>137</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="J29" t="s">
         <v>153</v>
@@ -2343,13 +2319,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2358,16 +2334,16 @@
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="J30" t="s">
         <v>153</v>
@@ -2375,237 +2351,34 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="G31" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="J31" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>172</v>
-      </c>
-      <c r="B32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" t="s">
-        <v>139</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" t="s">
-        <v>145</v>
-      </c>
-      <c r="G38" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
